--- a/landmarks/sex_table.xlsx
+++ b/landmarks/sex_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanbe\Dropbox (Cambridge University)\manuscript_color_patterns_erato_melp\landmarks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanbe\Dropbox (Cambridge University)\patternize_Heliconius_forewing_band\Heliconius_forwing_band\landmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9617B9C0-55FC-4084-8DB6-787DA41136FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F11D136-83F2-4C36-860A-17A139480E54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C2F34A29-253E-4216-91E6-BA6293E211B7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="1" xr2:uid="{C2F34A29-253E-4216-91E6-BA6293E211B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="284">
   <si>
     <t>H.melpomene</t>
   </si>
@@ -955,6 +955,15 @@
   </si>
   <si>
     <t>IMG_1885</t>
+  </si>
+  <si>
+    <t>CAM016224</t>
+  </si>
+  <si>
+    <t>CAM016606</t>
+  </si>
+  <si>
+    <t>CAM016772</t>
   </si>
 </sst>
 </file>
@@ -1007,7 +1016,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1023,6 +1032,9 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1340,22 +1352,22 @@
   <dimension ref="A1:H290"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D288" sqref="C1:D288"/>
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="5" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -1381,7 +1393,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1398,7 +1410,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1415,7 +1427,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1432,7 +1444,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1455,7 +1467,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1472,7 +1484,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1495,7 +1507,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1512,7 +1524,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -1529,7 +1541,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1552,7 +1564,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1575,7 +1587,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1598,7 +1610,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1621,7 +1633,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1644,7 +1656,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1667,7 +1679,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1684,7 +1696,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -1701,7 +1713,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -1718,7 +1730,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -1735,7 +1747,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1749,7 +1761,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -1763,7 +1775,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -1777,7 +1789,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -1791,7 +1803,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -1805,7 +1817,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -1819,7 +1831,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -1833,7 +1845,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -1847,7 +1859,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -1861,7 +1873,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -1875,7 +1887,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -1889,7 +1901,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -1903,7 +1915,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -1917,7 +1929,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -1931,7 +1943,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -1945,7 +1957,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -1959,7 +1971,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -1973,7 +1985,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -1987,7 +1999,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
@@ -2001,7 +2013,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
@@ -2015,7 +2027,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
@@ -2038,7 +2050,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -2061,7 +2073,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
@@ -2084,7 +2096,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -2107,7 +2119,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
@@ -2130,7 +2142,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -2153,7 +2165,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
@@ -2167,7 +2179,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -2181,7 +2193,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
@@ -2195,7 +2207,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
@@ -2209,7 +2221,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
@@ -2223,7 +2235,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -2246,7 +2258,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
@@ -2269,7 +2281,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
@@ -2292,7 +2304,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -2315,7 +2327,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
@@ -2329,7 +2341,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
@@ -2352,7 +2364,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
@@ -2375,7 +2387,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
@@ -2391,7 +2403,7 @@
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>0</v>
       </c>
@@ -2407,7 +2419,7 @@
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>0</v>
       </c>
@@ -2421,7 +2433,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
@@ -2435,7 +2447,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>0</v>
       </c>
@@ -2449,7 +2461,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
@@ -2463,7 +2475,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
@@ -2477,7 +2489,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>0</v>
       </c>
@@ -2491,7 +2503,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
@@ -2505,7 +2517,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
@@ -2519,7 +2531,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>0</v>
       </c>
@@ -2533,7 +2545,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
@@ -2547,7 +2559,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>0</v>
       </c>
@@ -2561,7 +2573,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>0</v>
       </c>
@@ -2575,7 +2587,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
@@ -2589,7 +2601,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
@@ -2603,7 +2615,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
@@ -2617,7 +2629,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>0</v>
       </c>
@@ -2631,7 +2643,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>0</v>
       </c>
@@ -2645,7 +2657,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>0</v>
       </c>
@@ -2659,7 +2671,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>0</v>
       </c>
@@ -2673,7 +2685,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>0</v>
       </c>
@@ -2687,7 +2699,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>0</v>
       </c>
@@ -2701,7 +2713,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>0</v>
       </c>
@@ -2715,7 +2727,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>0</v>
       </c>
@@ -2729,7 +2741,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>0</v>
       </c>
@@ -2752,7 +2764,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
@@ -2775,7 +2787,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>0</v>
       </c>
@@ -2798,7 +2810,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>0</v>
       </c>
@@ -2821,7 +2833,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>0</v>
       </c>
@@ -2844,7 +2856,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>0</v>
       </c>
@@ -2858,7 +2870,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>0</v>
       </c>
@@ -2874,7 +2886,7 @@
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>0</v>
       </c>
@@ -2890,19 +2902,19 @@
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="4"/>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="4"/>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>0</v>
       </c>
@@ -2918,7 +2930,7 @@
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>0</v>
       </c>
@@ -2941,7 +2953,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>0</v>
       </c>
@@ -2964,7 +2976,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>0</v>
       </c>
@@ -2987,7 +2999,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>0</v>
       </c>
@@ -3010,7 +3022,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>0</v>
       </c>
@@ -3033,7 +3045,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>0</v>
       </c>
@@ -3056,7 +3068,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>0</v>
       </c>
@@ -3079,7 +3091,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>0</v>
       </c>
@@ -3102,7 +3114,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>0</v>
       </c>
@@ -3125,7 +3137,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>0</v>
       </c>
@@ -3141,7 +3153,7 @@
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>0</v>
       </c>
@@ -3155,7 +3167,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>0</v>
       </c>
@@ -3169,7 +3181,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>0</v>
       </c>
@@ -3183,7 +3195,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>0</v>
       </c>
@@ -3197,7 +3209,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>0</v>
       </c>
@@ -3211,7 +3223,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>0</v>
       </c>
@@ -3225,7 +3237,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>0</v>
       </c>
@@ -3239,7 +3251,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>0</v>
       </c>
@@ -3253,7 +3265,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>0</v>
       </c>
@@ -3267,7 +3279,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>0</v>
       </c>
@@ -3281,7 +3293,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>0</v>
       </c>
@@ -3295,7 +3307,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>0</v>
       </c>
@@ -3309,7 +3321,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>0</v>
       </c>
@@ -3323,7 +3335,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>0</v>
       </c>
@@ -3337,7 +3349,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>0</v>
       </c>
@@ -3351,7 +3363,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>0</v>
       </c>
@@ -3365,7 +3377,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>0</v>
       </c>
@@ -3379,7 +3391,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>0</v>
       </c>
@@ -3393,7 +3405,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>0</v>
       </c>
@@ -3408,7 +3420,7 @@
       </c>
       <c r="F122" s="9"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>0</v>
       </c>
@@ -3423,7 +3435,7 @@
       </c>
       <c r="F123" s="9"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>0</v>
       </c>
@@ -3438,7 +3450,7 @@
       </c>
       <c r="F124" s="9"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>0</v>
       </c>
@@ -3453,7 +3465,7 @@
       </c>
       <c r="F125" s="9"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>0</v>
       </c>
@@ -3468,7 +3480,7 @@
       </c>
       <c r="F126" s="9"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>0</v>
       </c>
@@ -3483,7 +3495,7 @@
       </c>
       <c r="F127" s="9"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>0</v>
       </c>
@@ -3498,7 +3510,7 @@
       </c>
       <c r="F128" s="9"/>
     </row>
-    <row r="129" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>0</v>
       </c>
@@ -3513,7 +3525,7 @@
       </c>
       <c r="F129" s="9"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>0</v>
       </c>
@@ -3528,7 +3540,7 @@
       </c>
       <c r="F130" s="9"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>0</v>
       </c>
@@ -3543,7 +3555,7 @@
       </c>
       <c r="F131" s="9"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>0</v>
       </c>
@@ -3558,7 +3570,7 @@
       </c>
       <c r="F132" s="9"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>0</v>
       </c>
@@ -3573,7 +3585,7 @@
       </c>
       <c r="F133" s="9"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>0</v>
       </c>
@@ -3588,7 +3600,7 @@
       </c>
       <c r="F134" s="9"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>0</v>
       </c>
@@ -3603,7 +3615,7 @@
       </c>
       <c r="F135" s="9"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>0</v>
       </c>
@@ -3617,7 +3629,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>0</v>
       </c>
@@ -3631,7 +3643,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>0</v>
       </c>
@@ -3645,7 +3657,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>0</v>
       </c>
@@ -3659,7 +3671,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>0</v>
       </c>
@@ -3673,7 +3685,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>0</v>
       </c>
@@ -3687,7 +3699,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>0</v>
       </c>
@@ -3701,7 +3713,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>0</v>
       </c>
@@ -3715,7 +3727,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>0</v>
       </c>
@@ -3729,19 +3741,19 @@
         <v>67</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="4"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="4"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="4"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>27</v>
       </c>
@@ -3755,7 +3767,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>27</v>
       </c>
@@ -3769,7 +3781,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>27</v>
       </c>
@@ -3783,7 +3795,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>27</v>
       </c>
@@ -3797,7 +3809,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>27</v>
       </c>
@@ -3811,7 +3823,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>27</v>
       </c>
@@ -3825,7 +3837,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>27</v>
       </c>
@@ -3839,7 +3851,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>27</v>
       </c>
@@ -3853,7 +3865,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>27</v>
       </c>
@@ -3867,7 +3879,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>27</v>
       </c>
@@ -3881,7 +3893,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>27</v>
       </c>
@@ -3895,7 +3907,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>27</v>
       </c>
@@ -3909,7 +3921,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>27</v>
       </c>
@@ -3923,7 +3935,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>27</v>
       </c>
@@ -3937,7 +3949,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>27</v>
       </c>
@@ -3951,7 +3963,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>27</v>
       </c>
@@ -3965,7 +3977,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>27</v>
       </c>
@@ -3979,7 +3991,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>27</v>
       </c>
@@ -3993,7 +4005,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>27</v>
       </c>
@@ -4007,7 +4019,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>27</v>
       </c>
@@ -4021,7 +4033,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>27</v>
       </c>
@@ -4035,7 +4047,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>27</v>
       </c>
@@ -4049,7 +4061,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>27</v>
       </c>
@@ -4063,7 +4075,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>27</v>
       </c>
@@ -4077,7 +4089,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>27</v>
       </c>
@@ -4091,7 +4103,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>27</v>
       </c>
@@ -4105,7 +4117,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>27</v>
       </c>
@@ -4119,7 +4131,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>27</v>
       </c>
@@ -4133,7 +4145,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>27</v>
       </c>
@@ -4147,7 +4159,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>27</v>
       </c>
@@ -4161,7 +4173,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>27</v>
       </c>
@@ -4175,7 +4187,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>27</v>
       </c>
@@ -4198,7 +4210,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>27</v>
       </c>
@@ -4221,7 +4233,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>27</v>
       </c>
@@ -4244,7 +4256,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>27</v>
       </c>
@@ -4267,7 +4279,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>27</v>
       </c>
@@ -4290,7 +4302,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>27</v>
       </c>
@@ -4313,7 +4325,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>27</v>
       </c>
@@ -4336,7 +4348,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>27</v>
       </c>
@@ -4359,7 +4371,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>27</v>
       </c>
@@ -4382,7 +4394,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>27</v>
       </c>
@@ -4405,7 +4417,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>27</v>
       </c>
@@ -4428,7 +4440,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>27</v>
       </c>
@@ -4451,7 +4463,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>27</v>
       </c>
@@ -4474,7 +4486,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>27</v>
       </c>
@@ -4497,7 +4509,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>27</v>
       </c>
@@ -4520,7 +4532,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>27</v>
       </c>
@@ -4543,7 +4555,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>27</v>
       </c>
@@ -4566,7 +4578,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>27</v>
       </c>
@@ -4589,7 +4601,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>27</v>
       </c>
@@ -4612,7 +4624,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>27</v>
       </c>
@@ -4635,7 +4647,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>27</v>
       </c>
@@ -4649,7 +4661,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>27</v>
       </c>
@@ -4663,7 +4675,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>27</v>
       </c>
@@ -4677,7 +4689,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>27</v>
       </c>
@@ -4691,7 +4703,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>27</v>
       </c>
@@ -4705,7 +4717,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>27</v>
       </c>
@@ -4719,7 +4731,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>27</v>
       </c>
@@ -4733,7 +4745,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>27</v>
       </c>
@@ -4747,7 +4759,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>27</v>
       </c>
@@ -4761,7 +4773,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>27</v>
       </c>
@@ -4775,7 +4787,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>27</v>
       </c>
@@ -4789,7 +4801,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>27</v>
       </c>
@@ -4803,7 +4815,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>27</v>
       </c>
@@ -4817,7 +4829,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>27</v>
       </c>
@@ -4831,7 +4843,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>27</v>
       </c>
@@ -4845,7 +4857,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>27</v>
       </c>
@@ -4859,7 +4871,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>27</v>
       </c>
@@ -4873,7 +4885,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>27</v>
       </c>
@@ -4887,7 +4899,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>27</v>
       </c>
@@ -4901,7 +4913,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>27</v>
       </c>
@@ -4915,7 +4927,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>27</v>
       </c>
@@ -4929,7 +4941,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>27</v>
       </c>
@@ -4943,7 +4955,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>27</v>
       </c>
@@ -4957,7 +4969,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>27</v>
       </c>
@@ -4971,7 +4983,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>27</v>
       </c>
@@ -4985,7 +4997,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>27</v>
       </c>
@@ -4999,7 +5011,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>27</v>
       </c>
@@ -5013,7 +5025,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>27</v>
       </c>
@@ -5027,7 +5039,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>27</v>
       </c>
@@ -5041,7 +5053,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>27</v>
       </c>
@@ -5055,7 +5067,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>27</v>
       </c>
@@ -5069,7 +5081,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>27</v>
       </c>
@@ -5083,7 +5095,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>27</v>
       </c>
@@ -5097,7 +5109,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>27</v>
       </c>
@@ -5111,7 +5123,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>27</v>
       </c>
@@ -5125,7 +5137,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>27</v>
       </c>
@@ -5139,7 +5151,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>27</v>
       </c>
@@ -5153,7 +5165,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>27</v>
       </c>
@@ -5167,7 +5179,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>27</v>
       </c>
@@ -5181,7 +5193,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>27</v>
       </c>
@@ -5195,7 +5207,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>27</v>
       </c>
@@ -5209,7 +5221,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>27</v>
       </c>
@@ -5223,7 +5235,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>27</v>
       </c>
@@ -5237,7 +5249,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>27</v>
       </c>
@@ -5251,7 +5263,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>27</v>
       </c>
@@ -5265,7 +5277,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>27</v>
       </c>
@@ -5279,7 +5291,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>27</v>
       </c>
@@ -5293,7 +5305,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>27</v>
       </c>
@@ -5307,7 +5319,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>27</v>
       </c>
@@ -5321,7 +5333,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>27</v>
       </c>
@@ -5335,7 +5347,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>27</v>
       </c>
@@ -5349,7 +5361,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>27</v>
       </c>
@@ -5363,7 +5375,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>27</v>
       </c>
@@ -5377,7 +5389,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>27</v>
       </c>
@@ -5391,7 +5403,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>27</v>
       </c>
@@ -5405,7 +5417,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>27</v>
       </c>
@@ -5419,7 +5431,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>27</v>
       </c>
@@ -5433,7 +5445,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>27</v>
       </c>
@@ -5447,7 +5459,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>27</v>
       </c>
@@ -5461,7 +5473,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>27</v>
       </c>
@@ -5475,7 +5487,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>27</v>
       </c>
@@ -5489,7 +5501,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>27</v>
       </c>
@@ -5503,7 +5515,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>27</v>
       </c>
@@ -5517,7 +5529,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>27</v>
       </c>
@@ -5531,7 +5543,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>27</v>
       </c>
@@ -5545,7 +5557,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>27</v>
       </c>
@@ -5559,7 +5571,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>27</v>
       </c>
@@ -5573,7 +5585,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>27</v>
       </c>
@@ -5587,7 +5599,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>27</v>
       </c>
@@ -5601,7 +5613,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>27</v>
       </c>
@@ -5615,7 +5627,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>27</v>
       </c>
@@ -5629,7 +5641,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>27</v>
       </c>
@@ -5643,7 +5655,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>27</v>
       </c>
@@ -5657,7 +5669,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>27</v>
       </c>
@@ -5671,7 +5683,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>27</v>
       </c>
@@ -5685,7 +5697,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>27</v>
       </c>
@@ -5699,7 +5711,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>27</v>
       </c>
@@ -5713,7 +5725,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>27</v>
       </c>
@@ -5727,7 +5739,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>27</v>
       </c>
@@ -5741,7 +5753,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>27</v>
       </c>
@@ -5755,7 +5767,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>27</v>
       </c>
@@ -5769,7 +5781,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>27</v>
       </c>
@@ -5783,7 +5795,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>27</v>
       </c>
@@ -5797,7 +5809,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>27</v>
       </c>
@@ -5811,7 +5823,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>27</v>
       </c>
@@ -5825,7 +5837,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>27</v>
       </c>
@@ -5839,7 +5851,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>27</v>
       </c>
@@ -5853,7 +5865,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>27</v>
       </c>
@@ -5867,7 +5879,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>27</v>
       </c>
@@ -5881,7 +5893,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>27</v>
       </c>
@@ -5895,10 +5907,10 @@
         <v>68</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
     </row>
   </sheetData>
@@ -5909,18 +5921,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24CD43D1-033E-42CE-BE73-A590FD1B088B}">
-  <dimension ref="A1:B282"/>
+  <dimension ref="A1:B286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
-      <selection activeCell="D284" sqref="D284"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -5928,7 +5940,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10428198</v>
       </c>
@@ -5936,7 +5948,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10428199</v>
       </c>
@@ -5944,7 +5956,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10428216</v>
       </c>
@@ -5952,7 +5964,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10428219</v>
       </c>
@@ -5960,7 +5972,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10428220</v>
       </c>
@@ -5968,7 +5980,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10428229</v>
       </c>
@@ -5976,7 +5988,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10428230</v>
       </c>
@@ -5984,7 +5996,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10428231</v>
       </c>
@@ -5992,7 +6004,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10428232</v>
       </c>
@@ -6000,7 +6012,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10428233</v>
       </c>
@@ -6008,7 +6020,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10428234</v>
       </c>
@@ -6016,7 +6028,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10428235</v>
       </c>
@@ -6024,7 +6036,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10428238</v>
       </c>
@@ -6032,7 +6044,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10428240</v>
       </c>
@@ -6040,7 +6052,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10428266</v>
       </c>
@@ -6048,7 +6060,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10428267</v>
       </c>
@@ -6056,7 +6068,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10428329</v>
       </c>
@@ -6064,7 +6076,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10428331</v>
       </c>
@@ -6072,7 +6084,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10428332</v>
       </c>
@@ -6080,7 +6092,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10428333</v>
       </c>
@@ -6088,7 +6100,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10428334</v>
       </c>
@@ -6096,7 +6108,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10428335</v>
       </c>
@@ -6104,7 +6116,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10428336</v>
       </c>
@@ -6112,7 +6124,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10428337</v>
       </c>
@@ -6120,7 +6132,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>10428338</v>
       </c>
@@ -6128,7 +6140,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10428339</v>
       </c>
@@ -6136,7 +6148,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10428340</v>
       </c>
@@ -6144,7 +6156,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10428341</v>
       </c>
@@ -6152,7 +6164,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>10428342</v>
       </c>
@@ -6160,7 +6172,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>10428343</v>
       </c>
@@ -6168,7 +6180,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>10428369</v>
       </c>
@@ -6176,7 +6188,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>10428371</v>
       </c>
@@ -6184,7 +6196,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>10428488</v>
       </c>
@@ -6192,7 +6204,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>10428490</v>
       </c>
@@ -6200,7 +6212,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>10428928</v>
       </c>
@@ -6208,7 +6220,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>10428929</v>
       </c>
@@ -6216,7 +6228,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>10428930</v>
       </c>
@@ -6224,7 +6236,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>10428931</v>
       </c>
@@ -6232,7 +6244,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>10428932</v>
       </c>
@@ -6240,7 +6252,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>10428934</v>
       </c>
@@ -6248,7 +6260,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>10428935</v>
       </c>
@@ -6256,7 +6268,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>10428936</v>
       </c>
@@ -6264,7 +6276,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>10428937</v>
       </c>
@@ -6272,7 +6284,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>10428941</v>
       </c>
@@ -6280,7 +6292,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>10428999</v>
       </c>
@@ -6288,7 +6300,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>10429064</v>
       </c>
@@ -6296,7 +6308,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>10429077</v>
       </c>
@@ -6304,7 +6316,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>10429078</v>
       </c>
@@ -6312,7 +6324,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>203</v>
       </c>
@@ -6320,7 +6332,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>210</v>
       </c>
@@ -6328,7 +6340,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>208</v>
       </c>
@@ -6336,7 +6348,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>209</v>
       </c>
@@ -6344,7 +6356,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -6352,7 +6364,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -6360,7 +6372,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>10</v>
       </c>
@@ -6368,7 +6380,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -6376,7 +6388,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -6384,7 +6396,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -6392,7 +6404,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -6400,7 +6412,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>204</v>
       </c>
@@ -6408,7 +6420,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>205</v>
       </c>
@@ -6416,7 +6428,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>206</v>
       </c>
@@ -6424,7 +6436,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>202</v>
       </c>
@@ -6432,7 +6444,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>207</v>
       </c>
@@ -6440,7 +6452,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>249</v>
       </c>
@@ -6448,7 +6460,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>250</v>
       </c>
@@ -6456,7 +6468,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>251</v>
       </c>
@@ -6464,7 +6476,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>252</v>
       </c>
@@ -6472,7 +6484,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>253</v>
       </c>
@@ -6480,7 +6492,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>254</v>
       </c>
@@ -6488,7 +6500,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>255</v>
       </c>
@@ -6496,7 +6508,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>256</v>
       </c>
@@ -6504,7 +6516,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>257</v>
       </c>
@@ -6512,7 +6524,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>258</v>
       </c>
@@ -6520,7 +6532,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>269</v>
       </c>
@@ -6528,7 +6540,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>270</v>
       </c>
@@ -6536,7 +6548,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>271</v>
       </c>
@@ -6544,7 +6556,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>272</v>
       </c>
@@ -6552,7 +6564,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>273</v>
       </c>
@@ -6560,7 +6572,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>274</v>
       </c>
@@ -6568,7 +6580,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>275</v>
       </c>
@@ -6576,7 +6588,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>276</v>
       </c>
@@ -6584,7 +6596,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>277</v>
       </c>
@@ -6592,7 +6604,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>278</v>
       </c>
@@ -6600,7 +6612,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
         <v>259</v>
       </c>
@@ -6608,7 +6620,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>260</v>
       </c>
@@ -6616,7 +6628,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>261</v>
       </c>
@@ -6624,7 +6636,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>262</v>
       </c>
@@ -6632,7 +6644,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>263</v>
       </c>
@@ -6640,7 +6652,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>264</v>
       </c>
@@ -6648,7 +6660,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>265</v>
       </c>
@@ -6656,7 +6668,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>266</v>
       </c>
@@ -6664,7 +6676,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>267</v>
       </c>
@@ -6672,7 +6684,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>268</v>
       </c>
@@ -6680,7 +6692,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>167</v>
       </c>
@@ -6688,7 +6700,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>168</v>
       </c>
@@ -6696,7 +6708,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>169</v>
       </c>
@@ -6704,7 +6716,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>170</v>
       </c>
@@ -6712,7 +6724,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>171</v>
       </c>
@@ -6720,7 +6732,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>172</v>
       </c>
@@ -6728,7 +6740,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>173</v>
       </c>
@@ -6736,7 +6748,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>174</v>
       </c>
@@ -6744,7 +6756,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>193</v>
       </c>
@@ -6752,7 +6764,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>194</v>
       </c>
@@ -6760,7 +6772,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>195</v>
       </c>
@@ -6768,7 +6780,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>196</v>
       </c>
@@ -6776,7 +6788,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>197</v>
       </c>
@@ -6784,7 +6796,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>198</v>
       </c>
@@ -6792,7 +6804,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>199</v>
       </c>
@@ -6800,7 +6812,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>200</v>
       </c>
@@ -6808,7 +6820,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>201</v>
       </c>
@@ -6816,7 +6828,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>185</v>
       </c>
@@ -6824,7 +6836,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>186</v>
       </c>
@@ -6832,7 +6844,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>187</v>
       </c>
@@ -6840,7 +6852,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>188</v>
       </c>
@@ -6848,7 +6860,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>189</v>
       </c>
@@ -6856,7 +6868,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>190</v>
       </c>
@@ -6864,7 +6876,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>191</v>
       </c>
@@ -6872,7 +6884,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>192</v>
       </c>
@@ -6880,7 +6892,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>96</v>
       </c>
@@ -6888,7 +6900,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>97</v>
       </c>
@@ -6896,7 +6908,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>98</v>
       </c>
@@ -6904,7 +6916,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>99</v>
       </c>
@@ -6912,7 +6924,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>100</v>
       </c>
@@ -6920,7 +6932,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>101</v>
       </c>
@@ -6928,7 +6940,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>102</v>
       </c>
@@ -6936,7 +6948,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>103</v>
       </c>
@@ -6944,7 +6956,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>104</v>
       </c>
@@ -6952,7 +6964,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>105</v>
       </c>
@@ -6960,7 +6972,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>84</v>
       </c>
@@ -6968,7 +6980,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>86</v>
       </c>
@@ -6976,7 +6988,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>87</v>
       </c>
@@ -6984,7 +6996,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>88</v>
       </c>
@@ -6992,7 +7004,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>89</v>
       </c>
@@ -7000,7 +7012,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>90</v>
       </c>
@@ -7008,7 +7020,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>91</v>
       </c>
@@ -7016,7 +7028,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>92</v>
       </c>
@@ -7024,7 +7036,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>78</v>
       </c>
@@ -7032,7 +7044,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>93</v>
       </c>
@@ -7040,7 +7052,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>94</v>
       </c>
@@ -7048,7 +7060,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>79</v>
       </c>
@@ -7056,7 +7068,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>80</v>
       </c>
@@ -7064,7 +7076,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>81</v>
       </c>
@@ -7072,7 +7084,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>106</v>
       </c>
@@ -7080,7 +7092,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>118</v>
       </c>
@@ -7088,7 +7100,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>119</v>
       </c>
@@ -7096,7 +7108,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>70</v>
       </c>
@@ -7104,7 +7116,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>71</v>
       </c>
@@ -7112,7 +7124,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>72</v>
       </c>
@@ -7120,7 +7132,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>73</v>
       </c>
@@ -7128,7 +7140,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>74</v>
       </c>
@@ -7136,7 +7148,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>75</v>
       </c>
@@ -7144,7 +7156,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>76</v>
       </c>
@@ -7152,7 +7164,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>77</v>
       </c>
@@ -7160,7 +7172,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>130</v>
       </c>
@@ -7168,7 +7180,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>131</v>
       </c>
@@ -7176,7 +7188,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>132</v>
       </c>
@@ -7184,7 +7196,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>133</v>
       </c>
@@ -7192,7 +7204,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>134</v>
       </c>
@@ -7200,7 +7212,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>135</v>
       </c>
@@ -7208,7 +7220,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>136</v>
       </c>
@@ -7216,7 +7228,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>82</v>
       </c>
@@ -7224,7 +7236,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>83</v>
       </c>
@@ -7232,7 +7244,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>95</v>
       </c>
@@ -7240,7 +7252,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>175</v>
       </c>
@@ -7248,7 +7260,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>176</v>
       </c>
@@ -7256,7 +7268,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>177</v>
       </c>
@@ -7264,7 +7276,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>178</v>
       </c>
@@ -7272,7 +7284,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>110</v>
       </c>
@@ -7280,7 +7292,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>111</v>
       </c>
@@ -7288,7 +7300,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>120</v>
       </c>
@@ -7296,7 +7308,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>121</v>
       </c>
@@ -7304,7 +7316,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>122</v>
       </c>
@@ -7312,7 +7324,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>123</v>
       </c>
@@ -7320,7 +7332,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>124</v>
       </c>
@@ -7328,7 +7340,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>157</v>
       </c>
@@ -7336,7 +7348,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>158</v>
       </c>
@@ -7344,7 +7356,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>112</v>
       </c>
@@ -7352,7 +7364,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>113</v>
       </c>
@@ -7360,7 +7372,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>114</v>
       </c>
@@ -7368,7 +7380,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>179</v>
       </c>
@@ -7376,7 +7388,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>125</v>
       </c>
@@ -7384,7 +7396,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>180</v>
       </c>
@@ -7392,7 +7404,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>181</v>
       </c>
@@ -7400,7 +7412,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>182</v>
       </c>
@@ -7408,7 +7420,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>159</v>
       </c>
@@ -7416,7 +7428,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>160</v>
       </c>
@@ -7424,7 +7436,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>161</v>
       </c>
@@ -7432,7 +7444,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>162</v>
       </c>
@@ -7440,7 +7452,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>115</v>
       </c>
@@ -7448,7 +7460,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>116</v>
       </c>
@@ -7456,7 +7468,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>117</v>
       </c>
@@ -7464,7 +7476,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>163</v>
       </c>
@@ -7472,7 +7484,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>164</v>
       </c>
@@ -7480,7 +7492,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>183</v>
       </c>
@@ -7488,7 +7500,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>184</v>
       </c>
@@ -7496,7 +7508,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>126</v>
       </c>
@@ -7504,7 +7516,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>127</v>
       </c>
@@ -7512,7 +7524,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>128</v>
       </c>
@@ -7520,7 +7532,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>165</v>
       </c>
@@ -7528,7 +7540,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>166</v>
       </c>
@@ -7536,7 +7548,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>129</v>
       </c>
@@ -7544,7 +7556,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>147</v>
       </c>
@@ -7552,7 +7564,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>148</v>
       </c>
@@ -7560,7 +7572,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>149</v>
       </c>
@@ -7568,7 +7580,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>150</v>
       </c>
@@ -7576,7 +7588,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>151</v>
       </c>
@@ -7584,7 +7596,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>152</v>
       </c>
@@ -7592,7 +7604,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>153</v>
       </c>
@@ -7600,7 +7612,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>154</v>
       </c>
@@ -7608,7 +7620,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>155</v>
       </c>
@@ -7616,7 +7628,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>156</v>
       </c>
@@ -7624,7 +7636,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>107</v>
       </c>
@@ -7632,7 +7644,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>108</v>
       </c>
@@ -7640,7 +7652,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>109</v>
       </c>
@@ -7648,7 +7660,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>137</v>
       </c>
@@ -7656,7 +7668,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>138</v>
       </c>
@@ -7664,7 +7676,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>139</v>
       </c>
@@ -7672,7 +7684,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>140</v>
       </c>
@@ -7680,7 +7692,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>141</v>
       </c>
@@ -7688,7 +7700,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>142</v>
       </c>
@@ -7696,7 +7708,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>143</v>
       </c>
@@ -7704,7 +7716,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>144</v>
       </c>
@@ -7712,7 +7724,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>145</v>
       </c>
@@ -7720,7 +7732,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>146</v>
       </c>
@@ -7728,7 +7740,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>239</v>
       </c>
@@ -7736,7 +7748,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>279</v>
       </c>
@@ -7744,7 +7756,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>241</v>
       </c>
@@ -7752,7 +7764,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>242</v>
       </c>
@@ -7760,7 +7772,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>243</v>
       </c>
@@ -7768,7 +7780,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>244</v>
       </c>
@@ -7776,7 +7788,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>245</v>
       </c>
@@ -7784,7 +7796,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>280</v>
       </c>
@@ -7792,7 +7804,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>247</v>
       </c>
@@ -7800,7 +7812,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>48</v>
       </c>
@@ -7808,7 +7820,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>47</v>
       </c>
@@ -7816,7 +7828,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>69</v>
       </c>
@@ -7824,7 +7836,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>46</v>
       </c>
@@ -7832,7 +7844,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>45</v>
       </c>
@@ -7840,7 +7852,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>44</v>
       </c>
@@ -7848,7 +7860,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>43</v>
       </c>
@@ -7856,7 +7868,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>248</v>
       </c>
@@ -7864,7 +7876,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>42</v>
       </c>
@@ -7872,7 +7884,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>41</v>
       </c>
@@ -7880,7 +7892,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>40</v>
       </c>
@@ -7888,7 +7900,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>39</v>
       </c>
@@ -7896,7 +7908,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>211</v>
       </c>
@@ -7904,7 +7916,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>212</v>
       </c>
@@ -7912,7 +7924,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>213</v>
       </c>
@@ -7920,7 +7932,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>214</v>
       </c>
@@ -7928,7 +7940,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>215</v>
       </c>
@@ -7936,7 +7948,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>216</v>
       </c>
@@ -7944,7 +7956,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>217</v>
       </c>
@@ -7952,7 +7964,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>218</v>
       </c>
@@ -7960,7 +7972,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>219</v>
       </c>
@@ -7968,7 +7980,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>220</v>
       </c>
@@ -7976,7 +7988,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>26</v>
       </c>
@@ -7984,7 +7996,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>25</v>
       </c>
@@ -7992,7 +8004,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>24</v>
       </c>
@@ -8000,7 +8012,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>23</v>
       </c>
@@ -8008,7 +8020,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>22</v>
       </c>
@@ -8016,7 +8028,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>21</v>
       </c>
@@ -8024,7 +8036,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>20</v>
       </c>
@@ -8032,7 +8044,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>221</v>
       </c>
@@ -8040,7 +8052,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>222</v>
       </c>
@@ -8048,7 +8060,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>223</v>
       </c>
@@ -8056,7 +8068,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>224</v>
       </c>
@@ -8064,7 +8076,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>225</v>
       </c>
@@ -8072,7 +8084,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>226</v>
       </c>
@@ -8080,7 +8092,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>227</v>
       </c>
@@ -8088,7 +8100,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>228</v>
       </c>
@@ -8096,7 +8108,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>229</v>
       </c>
@@ -8104,7 +8116,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>230</v>
       </c>
@@ -8112,7 +8124,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>231</v>
       </c>
@@ -8120,7 +8132,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>232</v>
       </c>
@@ -8128,7 +8140,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>233</v>
       </c>
@@ -8136,7 +8148,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>234</v>
       </c>
@@ -8144,7 +8156,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>235</v>
       </c>
@@ -8152,7 +8164,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>236</v>
       </c>
@@ -8160,7 +8172,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>237</v>
       </c>
@@ -8168,11 +8180,43 @@
         <v>67</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>238</v>
       </c>
       <c r="B282" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>281</v>
+      </c>
+      <c r="B283" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>282</v>
+      </c>
+      <c r="B284" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>283</v>
+      </c>
+      <c r="B285" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="11">
+        <v>10428116</v>
+      </c>
+      <c r="B286" t="s">
         <v>67</v>
       </c>
     </row>
@@ -8181,5 +8225,6 @@
     <sortCondition ref="A2:A287"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>